--- a/uploads/Copy_of_Solicitudes_de_georreferencia_listado_completo_abril2025.xlsx
+++ b/uploads/Copy_of_Solicitudes_de_georreferencia_listado_completo_abril2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Documents\UGST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDED543-CFC1-4C82-91D6-C44AFEF8B565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7A7682-9439-4DB7-B973-ADAE76942B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D8229A82-33A1-4ADC-984B-6B61B2C93651}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8229A82-33A1-4ADC-984B-6B61B2C93651}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="173">
   <si>
     <t>IF</t>
   </si>
@@ -321,6 +321,243 @@
   </si>
   <si>
     <t>ID_PERSONA</t>
+  </si>
+  <si>
+    <t>JOVA</t>
+  </si>
+  <si>
+    <t>16-2559-00124779-2</t>
+  </si>
+  <si>
+    <t>16-2559-00124780-2</t>
+  </si>
+  <si>
+    <t>16-2484-00123220-2</t>
+  </si>
+  <si>
+    <t>32-7175-00124996-2</t>
+  </si>
+  <si>
+    <t>11-1014-00122597-2</t>
+  </si>
+  <si>
+    <t>16-2484-00122664-2</t>
+  </si>
+  <si>
+    <t>25-5556-00122704-2</t>
+  </si>
+  <si>
+    <t>16-2370-00123509-2</t>
+  </si>
+  <si>
+    <t>16-2487-00123676-2</t>
+  </si>
+  <si>
+    <t>16-2484-00124658-2</t>
+  </si>
+  <si>
+    <t>3-45-00125070-2</t>
+  </si>
+  <si>
+    <t>16-2559-00125147-2</t>
+  </si>
+  <si>
+    <t>25-5568-00125162-2</t>
+  </si>
+  <si>
+    <t>16-2460-00125211-2</t>
+  </si>
+  <si>
+    <t>16-2484-00124989-2</t>
+  </si>
+  <si>
+    <t>16-2481-00125261-2</t>
+  </si>
+  <si>
+    <t>16-2280-00125263-2</t>
+  </si>
+  <si>
+    <t>6-453-00123791-2</t>
+  </si>
+  <si>
+    <t>11-1020-00124517-2</t>
+  </si>
+  <si>
+    <t>16-2472-00124866-2</t>
+  </si>
+  <si>
+    <t>26-5676-00125309-2</t>
+  </si>
+  <si>
+    <t>19-2748-00125319-2</t>
+  </si>
+  <si>
+    <t>16-2484-00125333-2</t>
+  </si>
+  <si>
+    <t>28-5886-00125397-2</t>
+  </si>
+  <si>
+    <t>16-2559-00124851-2</t>
+  </si>
+  <si>
+    <t>6-453-00123778-2</t>
+  </si>
+  <si>
+    <t>16-2298-00124545-2</t>
+  </si>
+  <si>
+    <t>28-5886-00125396-2</t>
+  </si>
+  <si>
+    <t>16-2262-00125446-2</t>
+  </si>
+  <si>
+    <t>16-2262-00123501-2</t>
+  </si>
+  <si>
+    <t>16-2559-00123681-2</t>
+  </si>
+  <si>
+    <t>14-1539-00123668-2</t>
+  </si>
+  <si>
+    <t>25-5568-00125161-2</t>
+  </si>
+  <si>
+    <t>16-2460-00124974-2</t>
+  </si>
+  <si>
+    <t>16-2559-00123513-2</t>
+  </si>
+  <si>
+    <t>14-1593-00125167-2</t>
+  </si>
+  <si>
+    <t>16-2460-00125213-2</t>
+  </si>
+  <si>
+    <t>25-5556-00131661-2</t>
+  </si>
+  <si>
+    <t>25-5568-00131967-2</t>
+  </si>
+  <si>
+    <t>20.048602,-102.322733|20.049618,-102.322628|20.050514,-102.325027|20.050902,-102.322695</t>
+  </si>
+  <si>
+    <t>20.348512,-103.495589|20.349720,-103.497125|20.351063,-103.499642|20.51814,-103.499067</t>
+  </si>
+  <si>
+    <t>78.9021°N,21.28038°W|78.9021°N,21.28038°W|78.9021°N,21.28038°W|78.9021°N,21.28038°W</t>
+  </si>
+  <si>
+    <t>22.425635,-102.191979|22.425837,-102.193395|22.430706,-102.191565|22.431045,-102.193281</t>
+  </si>
+  <si>
+    <t>20°52'23.41"N,101°22'05.69"w|20°52'23.41"N,101°22'05.69"w|20°52'23.41"N,101°22'05.69"w|20°52'23.41"N,101°22'05.69"w</t>
+  </si>
+  <si>
+    <t>19.184272°N,102.162176°W|19.184272°N,102.162176°W|19.184272°N,102.162176°W|19.184272°N,102.162176°W</t>
+  </si>
+  <si>
+    <t>25°35'05.30"N,108°24'58.39"W|25°36'02.65"N,108°25'01.15"W|25°36'12.98"N,108°24'58.78"W|25°36'13.01"N,108°24'56.64"W</t>
+  </si>
+  <si>
+    <t>20.063931843027287,-102.3725100247693|20.064594721421475,-102.35192684626607|20.07343283231851,-102.37092217957047|20.076415582319573,-102.35186803718462</t>
+  </si>
+  <si>
+    <t>19.91104495522179,-102.41973770121062|19.915564087526473,-102.41596115091765|19.917339425602115,-102.42505920389617|19.917339425602115,-102.42505920389617</t>
+  </si>
+  <si>
+    <t>19.234561,-102.3858|19.234561,-102.3858|19.234561,-102.3858|19.234561,-102.3858</t>
+  </si>
+  <si>
+    <t>23°45'39.43"N,110°15'4.84"W|23°45'39.43"N,110°15'4.84"W|23°45'39.43"N,110°15'4.84"W|23°45'39.43"N,110°15'4.84"W</t>
+  </si>
+  <si>
+    <t>19.574539,-101.512437|19.575752,-101.500420|19.587154,-101.501965|19.590065,-101.512179</t>
+  </si>
+  <si>
+    <t>25.391221,108.452794|25.391797,108.452425|25.392016,108.454292|25.392572,108.453944</t>
+  </si>
+  <si>
+    <t>20.3537,-103.481944|20.3537,-103.491944|20.3637,-103.481944|20.3737,-103.481944</t>
+  </si>
+  <si>
+    <t>19°21'31.00"N,102°16'04.30"W|19°21'31.00"N,102°16'04.30"W|19°21'31.00"N,102°16'04.30"W|19°21'31.00"N,102°16'04.30"W</t>
+  </si>
+  <si>
+    <t>19.205574°N,101.558853°W|19.205574°N,101.558853°W|19.205574°N,101.558853°W|19.205574°N,101.558853°W</t>
+  </si>
+  <si>
+    <t>19.16467°N,101.375622°W|19.16467°N,101.375622°W|19.16467°N,101.375622°W|19.16467°N,101.375622°W</t>
+  </si>
+  <si>
+    <t>29°32'01.1"N,106°01'20.2"W|29°32'01.1"N,106°01'20.2"W|29°32'01.1"N,106°01'20.2"W|29°32'01.1"N,106°01'20.2"W</t>
+  </si>
+  <si>
+    <t>20.064738,-100.297366|20.070934,-100.301116|20.076582,-100.309791|20.076690,-100.311357</t>
+  </si>
+  <si>
+    <t>19.152596°N,101.310114°W|19.152596°N,101.310114°W|19.152596°N,101.310114°W|19.152596°N,101.310114°W</t>
+  </si>
+  <si>
+    <t>28.622982,-111.501911|28.622982,-111.501911|28.622982,-111.535085|28.640761,-111.535256</t>
+  </si>
+  <si>
+    <t>24.00166,100.06358|24.00169,100.06166|24.00418,100.06364|24.00422,100.06172</t>
+  </si>
+  <si>
+    <t>19.22574391,-102.3803352|19.22574391,-102.3803352|19.23766441,-102.3602398|19.23766441,-102.3602398</t>
+  </si>
+  <si>
+    <t>22.50121,98.452063|22.501887,	98.451792|22.50278,	98.452990|22.503438,	98.452217|22.503474,98.452480</t>
+  </si>
+  <si>
+    <t>19.5294610,-101.4797900|19.5294806,-101.4796779|19.5295236,-101.4798475|19.5295795,-101.4797084</t>
+  </si>
+  <si>
+    <t>29°32'32.4"N,106°03'38.8"W|29°32'32.4"N,106°03'38.8"W|29°32'32.4"N,106°03'38.8"W|29°32'32.4"N,106°03'38.8"W</t>
+  </si>
+  <si>
+    <t>19.915176357929756,-102.00380802154541|19.915176357929756,-102.00380802154541|19.953324383778597,-102.30698246403199|19.953324383778597,-102.30698246403199</t>
+  </si>
+  <si>
+    <t>22.501975,	98.454080|22.502345,	98.455880|22.502978,98.455841|22.503014,98.453918|22.503327	,98.455478</t>
+  </si>
+  <si>
+    <t>19.20164,-102.3225|19.20164,-102.3225|19.20164,-102.3225|19.20164,-102.3225</t>
+  </si>
+  <si>
+    <t>19.14560°N,102.302329°W|19.14560°N,102.302329°W|19.14560°N,102.302329°W|19.14560°N,102.302329°W</t>
+  </si>
+  <si>
+    <t>19.9113558895235,-101.68980276248777|19.9113558895235,-101.68980276248777|19.911372912133558,-101.66755115650022|19.911372912133558,-101.66755115650022</t>
+  </si>
+  <si>
+    <t>19.886670765754005,-102.19268860353966|19.886670765754005,-102.19268860353966|19.886670765754005,-102.19268860353966|19.886670765754005,-102.19268860353966</t>
+  </si>
+  <si>
+    <t>25.392597,108.453938|25.393167,108.453531|25.393392,108.455379|25.39398,108.454969</t>
+  </si>
+  <si>
+    <t>20.1579722,-103.7348056|20.1586444,-103.7338402|20.1588562,-103.7354388|20.1597192,-103.7347646</t>
+  </si>
+  <si>
+    <t>19°54'06"N,102°23'32"W|19°54'06"N,102°23'32"W|19°54'07"N,102°23'35"W|19°54'09"N,102°23'34"W</t>
+  </si>
+  <si>
+    <t>20°7'29.0190"N,101°55'3.006"W|20°7'29.0190"N,101°55'3.006"W|20°7'29.0190"N,101°55'3.006"W|20°7'29.0190"N,101°55'3.006"W</t>
+  </si>
+  <si>
+    <t>20.4113,-103.8468|20.4213,-103.8468|20.4313,-103.8468|20.4413,-103.8468</t>
+  </si>
+  <si>
+    <t>24°3'30.80"N,106°58'4.44"W|24°3'33.76"N,106°57'54.03"W|24°3'45.00"N,106°58'13.56"W|24°3'51.17"N,106°57'58.66"W</t>
+  </si>
+  <si>
+    <t>25°39'57.12"N,108°23'58.26"W|25°39'58.56"N,108°24'0.48"W|25°40'4.34"N,108°23'52.77"W|25°40'5.49"N,108°23'55.00"W</t>
   </si>
 </sst>
 </file>
@@ -692,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4989BA-AAFF-4006-A638-4FD0A58DD610}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:I7328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1543,6 +1780,786 @@
         <v>92</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>2774506</v>
+      </c>
+      <c r="C43">
+        <v>12136330</v>
+      </c>
+      <c r="D43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>2774717</v>
+      </c>
+      <c r="C44">
+        <v>20008009</v>
+      </c>
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>2740906</v>
+      </c>
+      <c r="C45">
+        <v>12919816</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>2784253</v>
+      </c>
+      <c r="C46">
+        <v>6076174</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46">
+        <v>80</v>
+      </c>
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>2731970</v>
+      </c>
+      <c r="C47">
+        <v>12902784</v>
+      </c>
+      <c r="D47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>2737736</v>
+      </c>
+      <c r="C48">
+        <v>8466502</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>2739348</v>
+      </c>
+      <c r="C49">
+        <v>9942974</v>
+      </c>
+      <c r="D49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49">
+        <v>1.81</v>
+      </c>
+      <c r="F49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>2748277</v>
+      </c>
+      <c r="C50">
+        <v>9165444</v>
+      </c>
+      <c r="D50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>2744208</v>
+      </c>
+      <c r="C51">
+        <v>15984228</v>
+      </c>
+      <c r="D51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51">
+        <v>2.44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>2777935</v>
+      </c>
+      <c r="C52">
+        <v>11442230</v>
+      </c>
+      <c r="D52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>2696412</v>
+      </c>
+      <c r="C53">
+        <v>6107686</v>
+      </c>
+      <c r="D53" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53">
+        <v>140</v>
+      </c>
+      <c r="F53" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>2787313</v>
+      </c>
+      <c r="C54">
+        <v>9088330</v>
+      </c>
+      <c r="D54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>2789181</v>
+      </c>
+      <c r="C55">
+        <v>8494807</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>2786368</v>
+      </c>
+      <c r="C56">
+        <v>20143418</v>
+      </c>
+      <c r="D56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>2780195</v>
+      </c>
+      <c r="C57">
+        <v>9805283</v>
+      </c>
+      <c r="D57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>2794137</v>
+      </c>
+      <c r="C58">
+        <v>9242515</v>
+      </c>
+      <c r="D58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58">
+        <v>12.38</v>
+      </c>
+      <c r="F58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>2792406</v>
+      </c>
+      <c r="C59">
+        <v>16552713</v>
+      </c>
+      <c r="D59" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>2722087</v>
+      </c>
+      <c r="C60">
+        <v>19842330</v>
+      </c>
+      <c r="D60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60">
+        <v>60</v>
+      </c>
+      <c r="F60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>2760299</v>
+      </c>
+      <c r="C61">
+        <v>19905748</v>
+      </c>
+      <c r="D61" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61">
+        <v>14.15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>2778701</v>
+      </c>
+      <c r="C62">
+        <v>6847294</v>
+      </c>
+      <c r="D62" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>2789047</v>
+      </c>
+      <c r="C63">
+        <v>7833833</v>
+      </c>
+      <c r="D63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63">
+        <v>50</v>
+      </c>
+      <c r="F63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>2706403</v>
+      </c>
+      <c r="C64">
+        <v>6091466</v>
+      </c>
+      <c r="D64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>2795556</v>
+      </c>
+      <c r="C65">
+        <v>20146007</v>
+      </c>
+      <c r="D65" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <v>2767363</v>
+      </c>
+      <c r="C66">
+        <v>10123895</v>
+      </c>
+      <c r="D66" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66">
+        <v>21.5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>2780306</v>
+      </c>
+      <c r="C67">
+        <v>20203383</v>
+      </c>
+      <c r="D67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67">
+        <v>3.47</v>
+      </c>
+      <c r="F67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <v>2722091</v>
+      </c>
+      <c r="C68">
+        <v>19842330</v>
+      </c>
+      <c r="D68" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68">
+        <v>66</v>
+      </c>
+      <c r="F68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>2766840</v>
+      </c>
+      <c r="C69">
+        <v>15190825</v>
+      </c>
+      <c r="D69" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69">
+        <v>3.5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70">
+        <v>2767363</v>
+      </c>
+      <c r="C70">
+        <v>10123895</v>
+      </c>
+      <c r="D70" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70">
+        <v>18</v>
+      </c>
+      <c r="F70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>2798159</v>
+      </c>
+      <c r="C71">
+        <v>20143563</v>
+      </c>
+      <c r="D71" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>2745267</v>
+      </c>
+      <c r="C72">
+        <v>9943136</v>
+      </c>
+      <c r="D72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72">
+        <v>80</v>
+      </c>
+      <c r="F72" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>2745169</v>
+      </c>
+      <c r="C73">
+        <v>12136330</v>
+      </c>
+      <c r="D73" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>2741996</v>
+      </c>
+      <c r="C74">
+        <v>14931770</v>
+      </c>
+      <c r="D74" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>2789181</v>
+      </c>
+      <c r="C75">
+        <v>8494807</v>
+      </c>
+      <c r="D75" t="s">
+        <v>127</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>2778065</v>
+      </c>
+      <c r="C76">
+        <v>20199040</v>
+      </c>
+      <c r="D76" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>2748937</v>
+      </c>
+      <c r="C77">
+        <v>7643453</v>
+      </c>
+      <c r="D77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77">
+        <v>1.81</v>
+      </c>
+      <c r="F77" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>2786349</v>
+      </c>
+      <c r="C78">
+        <v>17615857</v>
+      </c>
+      <c r="D78" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>2786351</v>
+      </c>
+      <c r="C79">
+        <v>20073238</v>
+      </c>
+      <c r="D79" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80">
+        <v>2822640</v>
+      </c>
+      <c r="C80">
+        <v>13164690</v>
+      </c>
+      <c r="D80" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80">
+        <v>19.5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81">
+        <v>2822558</v>
+      </c>
+      <c r="C81">
+        <v>8161989</v>
+      </c>
+      <c r="D81" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81">
+        <v>2.35</v>
+      </c>
+      <c r="F81" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F7328" xr:uid="{DA4989BA-AAFF-4006-A638-4FD0A58DD610}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
